--- a/file/hyxd_movie_01newdata5.xlsx
+++ b/file/hyxd_movie_01newdata5.xlsx
@@ -351,7 +351,7 @@
   <dimension ref="A1:E932"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D30" sqref="D30:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -618,7 +618,7 @@
         <v>345</v>
       </c>
       <c r="C18" s="1">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="1">
         <v>27</v>
@@ -633,102 +633,297 @@
         <v>345</v>
       </c>
       <c r="C19" s="1">
+        <v>60</v>
+      </c>
+      <c r="D19" s="1">
+        <v>27</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>11</v>
+      </c>
+      <c r="B20" s="1">
+        <v>346</v>
+      </c>
+      <c r="C20" s="1">
+        <v>60</v>
+      </c>
+      <c r="D20" s="1">
+        <v>27</v>
+      </c>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>11</v>
+      </c>
+      <c r="B21" s="1">
+        <v>347</v>
+      </c>
+      <c r="C21" s="1">
+        <v>60</v>
+      </c>
+      <c r="D21" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>348</v>
+      </c>
+      <c r="C22" s="1">
+        <v>61</v>
+      </c>
+      <c r="D22" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1">
+        <v>349</v>
+      </c>
+      <c r="C23" s="1">
+        <v>62</v>
+      </c>
+      <c r="D23" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>13</v>
+      </c>
+      <c r="B24" s="1">
+        <v>350</v>
+      </c>
+      <c r="C24" s="1">
         <v>63</v>
       </c>
-      <c r="D19" s="1">
-        <v>28</v>
-      </c>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1"/>
+      <c r="D24" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>14</v>
+      </c>
+      <c r="B25" s="1">
+        <v>351</v>
+      </c>
+      <c r="C25" s="1">
+        <v>64</v>
+      </c>
+      <c r="D25" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>11</v>
+      </c>
+      <c r="B26" s="1">
+        <v>352</v>
+      </c>
+      <c r="C26" s="1">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1">
+        <v>31</v>
+      </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>11</v>
+      </c>
+      <c r="B27" s="1">
+        <v>353</v>
+      </c>
+      <c r="C27" s="1">
+        <v>64</v>
+      </c>
+      <c r="D27" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>11</v>
+      </c>
+      <c r="B28" s="1">
+        <v>354</v>
+      </c>
+      <c r="C28" s="1">
+        <v>64</v>
+      </c>
+      <c r="D28" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>355</v>
+      </c>
+      <c r="C29" s="1">
+        <v>65</v>
+      </c>
+      <c r="D29" s="1">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>356</v>
+      </c>
+      <c r="C30" s="1">
+        <v>66</v>
+      </c>
+      <c r="D30" s="1">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>357</v>
+      </c>
+      <c r="C31" s="1">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36</v>
+      </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="A32" s="1">
+        <v>15</v>
+      </c>
+      <c r="B32" s="1">
+        <v>358</v>
+      </c>
+      <c r="C32" s="1">
+        <v>68</v>
+      </c>
+      <c r="D32" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>16</v>
+      </c>
+      <c r="B33" s="1">
+        <v>359</v>
+      </c>
+      <c r="C33" s="1">
+        <v>69</v>
+      </c>
+      <c r="D33" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>17</v>
+      </c>
+      <c r="B34" s="1">
+        <v>360</v>
+      </c>
+      <c r="C34" s="1">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>18</v>
+      </c>
+      <c r="B35" s="1">
+        <v>361</v>
+      </c>
+      <c r="C35" s="1">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>11</v>
+      </c>
+      <c r="B36" s="1">
+        <v>362</v>
+      </c>
+      <c r="C36" s="1">
+        <v>70</v>
+      </c>
+      <c r="D36" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>11</v>
+      </c>
+      <c r="B37" s="1">
+        <v>363</v>
+      </c>
+      <c r="C37" s="1">
+        <v>70</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:4">
       <c r="A39" s="1"/>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:4">
       <c r="A40" s="1"/>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:4">
       <c r="A41" s="1"/>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:4">
       <c r="A42" s="1"/>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:4">
       <c r="A43" s="1"/>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:4">
       <c r="A44" s="1"/>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:4">
       <c r="A45" s="1"/>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:4">
       <c r="A46" s="1"/>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:4">
       <c r="A47" s="1"/>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:4">
       <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1">
